--- a/航天小区/测试用热量表表号/航天小区热表表号.xlsx
+++ b/航天小区/测试用热量表表号/航天小区热表表号.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$81</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -583,14 +583,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2103,7 +2103,7 @@
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H48" s="3">
         <v>21304650</v>
